--- a/media/ADOR-FY25-PL-ELE-02-05th May 2024 f.xlsx
+++ b/media/ADOR-FY25-PL-ELE-02-05th May 2024 f.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\22.Pricelist Automate\server\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB32A92D-BBA9-49CD-8381-E9B975DFECFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E91C632-AA7C-4C0F-86E5-A3AE6DFB7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3728,9 +3728,6 @@
     </r>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>MILD STEEL GENERAL PURPOSE ( MSGP )</t>
   </si>
   <si>
@@ -3891,13 +3888,16 @@
   </si>
   <si>
     <t>Classifications</t>
+  </si>
+  <si>
+    <t>desc1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3927,6 +3927,12 @@
       <color rgb="FFFEFEFE"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3982,7 +3988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4000,6 +4006,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4363,7 +4372,7 @@
   <dimension ref="A1:G362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4392,11 +4401,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>335</v>
+      <c r="F1" s="6" t="s">
+        <v>389</v>
       </c>
       <c r="G1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4416,10 +4425,10 @@
         <v>382</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4439,10 +4448,10 @@
         <v>303</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4462,10 +4471,10 @@
         <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4485,10 +4494,10 @@
         <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4508,10 +4517,10 @@
         <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4531,10 +4540,10 @@
         <v>402</v>
       </c>
       <c r="F7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4554,10 +4563,10 @@
         <v>329</v>
       </c>
       <c r="F8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4577,10 +4586,10 @@
         <v>329</v>
       </c>
       <c r="F9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,10 +4609,10 @@
         <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4623,10 +4632,10 @@
         <v>441</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4646,10 +4655,10 @@
         <v>350</v>
       </c>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4669,10 +4678,10 @@
         <v>350</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4692,10 +4701,10 @@
         <v>350</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4715,10 +4724,10 @@
         <v>245</v>
       </c>
       <c r="F15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4738,10 +4747,10 @@
         <v>241</v>
       </c>
       <c r="F16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4761,10 +4770,10 @@
         <v>241</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4784,10 +4793,10 @@
         <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4807,10 +4816,10 @@
         <v>233</v>
       </c>
       <c r="F19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4830,10 +4839,10 @@
         <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4853,10 +4862,10 @@
         <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4876,10 +4885,10 @@
         <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4899,10 +4908,10 @@
         <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4922,10 +4931,10 @@
         <v>305</v>
       </c>
       <c r="F24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4945,10 +4954,10 @@
         <v>268</v>
       </c>
       <c r="F25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4968,10 +4977,10 @@
         <v>268</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G26" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4991,10 +5000,10 @@
         <v>268</v>
       </c>
       <c r="F27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5014,10 +5023,10 @@
         <v>268</v>
       </c>
       <c r="F28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5037,10 +5046,10 @@
         <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5060,10 +5069,10 @@
         <v>232</v>
       </c>
       <c r="F30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5083,10 +5092,10 @@
         <v>232</v>
       </c>
       <c r="F31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5106,10 +5115,10 @@
         <v>232</v>
       </c>
       <c r="F32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5129,10 +5138,10 @@
         <v>257</v>
       </c>
       <c r="F33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5152,10 +5161,10 @@
         <v>231</v>
       </c>
       <c r="F34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5175,10 +5184,10 @@
         <v>231</v>
       </c>
       <c r="F35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5198,10 +5207,10 @@
         <v>231</v>
       </c>
       <c r="F36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5221,10 +5230,10 @@
         <v>297</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5244,10 +5253,10 @@
         <v>267</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5267,10 +5276,10 @@
         <v>267</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5290,10 +5299,10 @@
         <v>267</v>
       </c>
       <c r="F40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5313,10 +5322,10 @@
         <v>276</v>
       </c>
       <c r="F41" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5336,10 +5345,10 @@
         <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5359,10 +5368,10 @@
         <v>245</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5382,10 +5391,10 @@
         <v>328</v>
       </c>
       <c r="F44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5405,10 +5414,10 @@
         <v>277</v>
       </c>
       <c r="F45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5428,10 +5437,10 @@
         <v>277</v>
       </c>
       <c r="F46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5451,10 +5460,10 @@
         <v>277</v>
       </c>
       <c r="F47" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G47" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5474,10 +5483,10 @@
         <v>343</v>
       </c>
       <c r="F48" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G48" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5497,10 +5506,10 @@
         <v>292</v>
       </c>
       <c r="F49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G49" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5520,10 +5529,10 @@
         <v>292</v>
       </c>
       <c r="F50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5543,10 +5552,10 @@
         <v>557</v>
       </c>
       <c r="F51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G51" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5566,10 +5575,10 @@
         <v>513</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5589,10 +5598,10 @@
         <v>513</v>
       </c>
       <c r="F53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5612,10 +5621,10 @@
         <v>513</v>
       </c>
       <c r="F54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5635,10 +5644,10 @@
         <v>455</v>
       </c>
       <c r="F55" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G55" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5658,10 +5667,10 @@
         <v>424</v>
       </c>
       <c r="F56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G56" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5681,10 +5690,10 @@
         <v>424</v>
       </c>
       <c r="F57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5704,10 +5713,10 @@
         <v>424</v>
       </c>
       <c r="F58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5727,7 +5736,7 @@
         <v>433</v>
       </c>
       <c r="F59" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5750,7 +5759,7 @@
         <v>433</v>
       </c>
       <c r="F60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5773,7 +5782,7 @@
         <v>433</v>
       </c>
       <c r="F61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5796,10 +5805,10 @@
         <v>641</v>
       </c>
       <c r="F62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5819,10 +5828,10 @@
         <v>612</v>
       </c>
       <c r="F63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G63" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5842,10 +5851,10 @@
         <v>612</v>
       </c>
       <c r="F64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G64" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5865,10 +5874,10 @@
         <v>773</v>
       </c>
       <c r="F65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G65" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5888,10 +5897,10 @@
         <v>744</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5911,10 +5920,10 @@
         <v>744</v>
       </c>
       <c r="F67" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G67" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5934,10 +5943,10 @@
         <v>435</v>
       </c>
       <c r="F68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5957,10 +5966,10 @@
         <v>352</v>
       </c>
       <c r="F69" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5980,10 +5989,10 @@
         <v>352</v>
       </c>
       <c r="F70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6003,10 +6012,10 @@
         <v>352</v>
       </c>
       <c r="F71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G71" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6026,10 +6035,10 @@
         <v>487</v>
       </c>
       <c r="F72" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6049,10 +6058,10 @@
         <v>411</v>
       </c>
       <c r="F73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6072,10 +6081,10 @@
         <v>411</v>
       </c>
       <c r="F74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6095,10 +6104,10 @@
         <v>411</v>
       </c>
       <c r="F75" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G75" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6118,10 +6127,10 @@
         <v>529</v>
       </c>
       <c r="F76" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6141,10 +6150,10 @@
         <v>454</v>
       </c>
       <c r="F77" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G77" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6164,10 +6173,10 @@
         <v>454</v>
       </c>
       <c r="F78" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G78" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6187,10 +6196,10 @@
         <v>454</v>
       </c>
       <c r="F79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6210,10 +6219,10 @@
         <v>739</v>
       </c>
       <c r="F80" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G80" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6233,10 +6242,10 @@
         <v>629</v>
       </c>
       <c r="F81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G81" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6256,10 +6265,10 @@
         <v>629</v>
       </c>
       <c r="F82" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G82" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6279,10 +6288,10 @@
         <v>629</v>
       </c>
       <c r="F83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G83" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6302,10 +6311,10 @@
         <v>1473</v>
       </c>
       <c r="F84" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G84" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6325,10 +6334,10 @@
         <v>1239</v>
       </c>
       <c r="F85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6348,10 +6357,10 @@
         <v>1239</v>
       </c>
       <c r="F86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6371,10 +6380,10 @@
         <v>594</v>
       </c>
       <c r="F87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G87" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6394,10 +6403,10 @@
         <v>555</v>
       </c>
       <c r="F88" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G88" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6417,10 +6426,10 @@
         <v>555</v>
       </c>
       <c r="F89" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G89" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6440,10 +6449,10 @@
         <v>555</v>
       </c>
       <c r="F90" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6463,10 +6472,10 @@
         <v>512</v>
       </c>
       <c r="F91" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6486,10 +6495,10 @@
         <v>428</v>
       </c>
       <c r="F92" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6509,10 +6518,10 @@
         <v>428</v>
       </c>
       <c r="F93" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6532,10 +6541,10 @@
         <v>428</v>
       </c>
       <c r="F94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G94" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6555,10 +6564,10 @@
         <v>497</v>
       </c>
       <c r="F95" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G95" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6578,10 +6587,10 @@
         <v>414</v>
       </c>
       <c r="F96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G96" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6601,10 +6610,10 @@
         <v>414</v>
       </c>
       <c r="F97" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.85" customHeight="1" x14ac:dyDescent="0.2">
@@ -6624,10 +6633,10 @@
         <v>423</v>
       </c>
       <c r="F98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6647,10 +6656,10 @@
         <v>658</v>
       </c>
       <c r="F99" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6670,10 +6679,10 @@
         <v>538</v>
       </c>
       <c r="F100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6693,10 +6702,10 @@
         <v>538</v>
       </c>
       <c r="F101" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G101" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6716,10 +6725,10 @@
         <v>538</v>
       </c>
       <c r="F102" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G102" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6739,10 +6748,10 @@
         <v>500</v>
       </c>
       <c r="F103" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G103" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6762,10 +6771,10 @@
         <v>438</v>
       </c>
       <c r="F104" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G104" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6785,10 +6794,10 @@
         <v>438</v>
       </c>
       <c r="F105" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G105" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6808,10 +6817,10 @@
         <v>438</v>
       </c>
       <c r="F106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6831,10 +6840,10 @@
         <v>675</v>
       </c>
       <c r="F107" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G107" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6854,10 +6863,10 @@
         <v>549</v>
       </c>
       <c r="F108" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G108" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6877,10 +6886,10 @@
         <v>549</v>
       </c>
       <c r="F109" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6900,10 +6909,10 @@
         <v>549</v>
       </c>
       <c r="F110" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G110" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6923,10 +6932,10 @@
         <v>660</v>
       </c>
       <c r="F111" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G111" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6946,10 +6955,10 @@
         <v>553</v>
       </c>
       <c r="F112" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G112" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6969,10 +6978,10 @@
         <v>553</v>
       </c>
       <c r="F113" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G113" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6992,10 +7001,10 @@
         <v>553</v>
       </c>
       <c r="F114" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G114" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7015,10 +7024,10 @@
         <v>579</v>
       </c>
       <c r="F115" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G115" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7038,10 +7047,10 @@
         <v>447</v>
       </c>
       <c r="F116" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7061,10 +7070,10 @@
         <v>447</v>
       </c>
       <c r="F117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G117" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -7084,10 +7093,10 @@
         <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G118" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7107,10 +7116,10 @@
         <v>1082</v>
       </c>
       <c r="F119" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G119" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7130,10 +7139,10 @@
         <v>952</v>
       </c>
       <c r="F120" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G120" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7153,10 +7162,10 @@
         <v>952</v>
       </c>
       <c r="F121" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G121" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7176,10 +7185,10 @@
         <v>952</v>
       </c>
       <c r="F122" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G122" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7199,10 +7208,10 @@
         <v>1113</v>
       </c>
       <c r="F123" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G123" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7222,10 +7231,10 @@
         <v>990</v>
       </c>
       <c r="F124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G124" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7245,10 +7254,10 @@
         <v>990</v>
       </c>
       <c r="F125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7268,10 +7277,10 @@
         <v>990</v>
       </c>
       <c r="F126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G126" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7291,10 +7300,10 @@
         <v>1581</v>
       </c>
       <c r="F127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G127" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7314,10 +7323,10 @@
         <v>1348</v>
       </c>
       <c r="F128" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G128" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7337,10 +7346,10 @@
         <v>1348</v>
       </c>
       <c r="F129" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G129" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7360,10 +7369,10 @@
         <v>1348</v>
       </c>
       <c r="F130" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G130" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7383,7 +7392,7 @@
         <v>728</v>
       </c>
       <c r="F131" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -7406,7 +7415,7 @@
         <v>697</v>
       </c>
       <c r="F132" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -7429,7 +7438,7 @@
         <v>697</v>
       </c>
       <c r="F133" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -7452,7 +7461,7 @@
         <v>697</v>
       </c>
       <c r="F134" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -7475,10 +7484,10 @@
         <v>820</v>
       </c>
       <c r="F135" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G135" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7498,10 +7507,10 @@
         <v>788</v>
       </c>
       <c r="F136" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G136" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7521,10 +7530,10 @@
         <v>788</v>
       </c>
       <c r="F137" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G137" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7544,10 +7553,10 @@
         <v>788</v>
       </c>
       <c r="F138" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G138" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7567,10 +7576,10 @@
         <v>1522</v>
       </c>
       <c r="F139" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G139" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7590,10 +7599,10 @@
         <v>1304</v>
       </c>
       <c r="F140" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G140" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7613,10 +7622,10 @@
         <v>1304</v>
       </c>
       <c r="F141" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G141" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7636,10 +7645,10 @@
         <v>1304</v>
       </c>
       <c r="F142" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G142" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7659,10 +7668,10 @@
         <v>1752</v>
       </c>
       <c r="F143" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G143" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7682,10 +7691,10 @@
         <v>1419</v>
       </c>
       <c r="F144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G144" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7705,10 +7714,10 @@
         <v>1419</v>
       </c>
       <c r="F145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G145" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -7728,10 +7737,10 @@
         <v>1419</v>
       </c>
       <c r="F146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G146" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7751,10 +7760,10 @@
         <v>2146</v>
       </c>
       <c r="F147" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7774,10 +7783,10 @@
         <v>2006</v>
       </c>
       <c r="F148" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G148" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7797,10 +7806,10 @@
         <v>2006</v>
       </c>
       <c r="F149" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G149" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7820,10 +7829,10 @@
         <v>2006</v>
       </c>
       <c r="F150" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G150" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7843,10 +7852,10 @@
         <v>1480</v>
       </c>
       <c r="F151" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G151" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7866,10 +7875,10 @@
         <v>1358</v>
       </c>
       <c r="F152" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7889,10 +7898,10 @@
         <v>1358</v>
       </c>
       <c r="F153" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G153" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7912,10 +7921,10 @@
         <v>1358</v>
       </c>
       <c r="F154" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G154" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7935,10 +7944,10 @@
         <v>1114</v>
       </c>
       <c r="F155" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G155" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7958,10 +7967,10 @@
         <v>1049</v>
       </c>
       <c r="F156" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G156" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7981,10 +7990,10 @@
         <v>1049</v>
       </c>
       <c r="F157" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G157" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8004,10 +8013,10 @@
         <v>1049</v>
       </c>
       <c r="F158" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8027,10 +8036,10 @@
         <v>1427</v>
       </c>
       <c r="F159" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8050,10 +8059,10 @@
         <v>1310</v>
       </c>
       <c r="F160" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G160" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8073,10 +8082,10 @@
         <v>1310</v>
       </c>
       <c r="F161" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G161" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8096,10 +8105,10 @@
         <v>1310</v>
       </c>
       <c r="F162" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8119,10 +8128,10 @@
         <v>1625</v>
       </c>
       <c r="F163" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G163" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8142,10 +8151,10 @@
         <v>1485</v>
       </c>
       <c r="F164" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G164" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8165,10 +8174,10 @@
         <v>1485</v>
       </c>
       <c r="F165" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G165" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8188,10 +8197,10 @@
         <v>1485</v>
       </c>
       <c r="F166" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G166" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8211,10 +8220,10 @@
         <v>2042</v>
       </c>
       <c r="F167" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G167" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8234,10 +8243,10 @@
         <v>1901</v>
       </c>
       <c r="F168" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G168" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8257,10 +8266,10 @@
         <v>1901</v>
       </c>
       <c r="F169" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G169" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8280,10 +8289,10 @@
         <v>1901</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G170" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8303,10 +8312,10 @@
         <v>2167</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G171" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8326,10 +8335,10 @@
         <v>1880</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G172" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8349,10 +8358,10 @@
         <v>1880</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G173" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -8372,10 +8381,10 @@
         <v>1880</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G174" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8395,10 +8404,10 @@
         <v>2014</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G175" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8418,10 +8427,10 @@
         <v>1804</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G176" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8441,10 +8450,10 @@
         <v>1804</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G177" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8464,10 +8473,10 @@
         <v>1804</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G178" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8487,10 +8496,10 @@
         <v>2045</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G179" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8510,10 +8519,10 @@
         <v>1964</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G180" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8533,10 +8542,10 @@
         <v>1964</v>
       </c>
       <c r="F181" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G181" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8556,10 +8565,10 @@
         <v>1964</v>
       </c>
       <c r="F182" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G182" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8579,7 +8588,7 @@
         <v>2290</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -8602,7 +8611,7 @@
         <v>2125</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -8625,7 +8634,7 @@
         <v>2125</v>
       </c>
       <c r="F185" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -8648,7 +8657,7 @@
         <v>2125</v>
       </c>
       <c r="F186" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -8671,10 +8680,10 @@
         <v>855</v>
       </c>
       <c r="F187" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G187" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8694,10 +8703,10 @@
         <v>785</v>
       </c>
       <c r="F188" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G188" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,10 +8726,10 @@
         <v>785</v>
       </c>
       <c r="F189" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G189" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8740,10 +8749,10 @@
         <v>785</v>
       </c>
       <c r="F190" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G190" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8763,10 +8772,10 @@
         <v>842</v>
       </c>
       <c r="F191" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8786,10 +8795,10 @@
         <v>782</v>
       </c>
       <c r="F192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G192" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8809,10 +8818,10 @@
         <v>782</v>
       </c>
       <c r="F193" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8832,10 +8841,10 @@
         <v>782</v>
       </c>
       <c r="F194" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G194" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8855,10 +8864,10 @@
         <v>1063</v>
       </c>
       <c r="F195" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G195" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8878,10 +8887,10 @@
         <v>974</v>
       </c>
       <c r="F196" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G196" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8901,10 +8910,10 @@
         <v>974</v>
       </c>
       <c r="F197" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G197" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8924,10 +8933,10 @@
         <v>974</v>
       </c>
       <c r="F198" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G198" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8947,10 +8956,10 @@
         <v>2612</v>
       </c>
       <c r="F199" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G199" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8970,10 +8979,10 @@
         <v>2424</v>
       </c>
       <c r="F200" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G200" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8993,10 +9002,10 @@
         <v>2424</v>
       </c>
       <c r="F201" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G201" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -9016,10 +9025,10 @@
         <v>2424</v>
       </c>
       <c r="F202" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G202" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9039,10 +9048,10 @@
         <v>555</v>
       </c>
       <c r="F203" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G203" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9062,10 +9071,10 @@
         <v>516</v>
       </c>
       <c r="F204" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G204" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9085,10 +9094,10 @@
         <v>516</v>
       </c>
       <c r="F205" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G205" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9108,10 +9117,10 @@
         <v>6771</v>
       </c>
       <c r="F206" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G206" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9131,10 +9140,10 @@
         <v>6572</v>
       </c>
       <c r="F207" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G207" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9154,10 +9163,10 @@
         <v>6572</v>
       </c>
       <c r="F208" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G208" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9177,10 +9186,10 @@
         <v>8339</v>
       </c>
       <c r="F209" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G209" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9200,10 +9209,10 @@
         <v>8178</v>
       </c>
       <c r="F210" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G210" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9223,10 +9232,10 @@
         <v>8178</v>
       </c>
       <c r="F211" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G211" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9246,10 +9255,10 @@
         <v>6377</v>
       </c>
       <c r="F212" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G212" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9269,10 +9278,10 @@
         <v>6182</v>
       </c>
       <c r="F213" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G213" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -9292,10 +9301,10 @@
         <v>6182</v>
       </c>
       <c r="F214" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G214" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9315,7 +9324,7 @@
         <v>440</v>
       </c>
       <c r="F215" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -9338,7 +9347,7 @@
         <v>440</v>
       </c>
       <c r="F216" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -9361,7 +9370,7 @@
         <v>440</v>
       </c>
       <c r="F217" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -9384,7 +9393,7 @@
         <v>455</v>
       </c>
       <c r="F218" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -9407,7 +9416,7 @@
         <v>455</v>
       </c>
       <c r="F219" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -9430,7 +9439,7 @@
         <v>455</v>
       </c>
       <c r="F220" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -9453,7 +9462,7 @@
         <v>586</v>
       </c>
       <c r="F221" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -9476,7 +9485,7 @@
         <v>586</v>
       </c>
       <c r="F222" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -9499,7 +9508,7 @@
         <v>586</v>
       </c>
       <c r="F223" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -9522,7 +9531,7 @@
         <v>596</v>
       </c>
       <c r="F224" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -9545,7 +9554,7 @@
         <v>596</v>
       </c>
       <c r="F225" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -9568,7 +9577,7 @@
         <v>596</v>
       </c>
       <c r="F226" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -9591,7 +9600,7 @@
         <v>599</v>
       </c>
       <c r="F227" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -9614,7 +9623,7 @@
         <v>599</v>
       </c>
       <c r="F228" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -9637,7 +9646,7 @@
         <v>599</v>
       </c>
       <c r="F229" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -9660,7 +9669,7 @@
         <v>1789</v>
       </c>
       <c r="F230" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -9683,7 +9692,7 @@
         <v>1789</v>
       </c>
       <c r="F231" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -9706,7 +9715,7 @@
         <v>1789</v>
       </c>
       <c r="F232" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -9729,7 +9738,7 @@
         <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -9752,7 +9761,7 @@
         <v>453</v>
       </c>
       <c r="F234" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -9775,7 +9784,7 @@
         <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -9798,7 +9807,7 @@
         <v>513</v>
       </c>
       <c r="F236" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -9821,7 +9830,7 @@
         <v>513</v>
       </c>
       <c r="F237" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -9844,7 +9853,7 @@
         <v>513</v>
       </c>
       <c r="F238" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -9867,10 +9876,10 @@
         <v>7472</v>
       </c>
       <c r="F239" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G239" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9890,10 +9899,10 @@
         <v>7278</v>
       </c>
       <c r="F240" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G240" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9913,10 +9922,10 @@
         <v>7278</v>
       </c>
       <c r="F241" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G241" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -9936,10 +9945,10 @@
         <v>9663</v>
       </c>
       <c r="F242" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G242" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9959,10 +9968,10 @@
         <v>9444</v>
       </c>
       <c r="F243" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G243" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9982,10 +9991,10 @@
         <v>9444</v>
       </c>
       <c r="F244" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G244" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10005,10 +10014,10 @@
         <v>7214</v>
       </c>
       <c r="F245" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G245" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -10028,10 +10037,10 @@
         <v>6932</v>
       </c>
       <c r="F246" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G246" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10051,10 +10060,10 @@
         <v>6932</v>
       </c>
       <c r="F247" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G247" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10074,10 +10083,10 @@
         <v>3671</v>
       </c>
       <c r="F248" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G248" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10097,10 +10106,10 @@
         <v>3539</v>
       </c>
       <c r="F249" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G249" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10120,10 +10129,10 @@
         <v>3539</v>
       </c>
       <c r="F250" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G250" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10143,7 +10152,7 @@
         <v>413</v>
       </c>
       <c r="F251" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -10166,7 +10175,7 @@
         <v>413</v>
       </c>
       <c r="F252" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -10189,7 +10198,7 @@
         <v>418</v>
       </c>
       <c r="F253" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -10212,7 +10221,7 @@
         <v>418</v>
       </c>
       <c r="F254" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G254">
         <v>0</v>
